--- a/ky/downloads/data-excel/11.7.1.1a.xlsx
+++ b/ky/downloads/data-excel/11.7.1.1a.xlsx
@@ -633,11 +633,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -646,7 +644,7 @@
     <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -660,7 +658,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -671,8 +669,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -706,8 +704,11 @@
       <c r="K4" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -741,8 +742,11 @@
       <c r="K5" s="16">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="16">
+        <v>1.6430457248453274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -776,8 +780,11 @@
       <c r="K6" s="17">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="17">
+        <v>0.41181606829870221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -811,8 +818,11 @@
       <c r="K7" s="17">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="17">
+        <v>0.94796963217320562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -846,8 +856,11 @@
       <c r="K8" s="17">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="17">
+        <v>0.72306112208737106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -881,8 +894,11 @@
       <c r="K9" s="17">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="17">
+        <v>2.1802539701246277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -916,8 +932,11 @@
       <c r="K10" s="17">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="17">
+        <v>0.63651150401750112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -951,8 +970,11 @@
       <c r="K11" s="17">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="17">
+        <v>0.97994201681774651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -986,8 +1008,11 @@
       <c r="K12" s="17">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="17">
+        <v>2.2469385026996971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
@@ -1021,8 +1046,11 @@
       <c r="K13" s="17">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="17">
+        <v>4.1686356866605365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -1055,6 +1083,9 @@
       </c>
       <c r="K14" s="18">
         <v>0.3</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0.3304193846038968</v>
       </c>
     </row>
   </sheetData>
